--- a/Excel Data/CDRCancellation.xlsx
+++ b/Excel Data/CDRCancellation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\QATeam\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,7 +350,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/CDRCancellation.xlsx
+++ b/Excel Data/CDRCancellation.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="CDRCancellation" sheetId="1" r:id="rId1"/>
+    <sheet name="New Data" sheetId="2" r:id="rId1"/>
+    <sheet name="CDRCancellation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>CREDIT.THEIR.REF</t>
   </si>
   <si>
-    <t>LDA0610554</t>
+    <t>CLK0601333</t>
+  </si>
+  <si>
+    <t>CLK0601322</t>
   </si>
 </sst>
 </file>
@@ -349,9 +353,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
